--- a/output/compare_data.xlsx
+++ b/output/compare_data.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -23,37 +26,73 @@
     <t xml:space="preserve">RLI_Butchart</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1982</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1986</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">1988</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">1990</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">1994</t>
   </si>
   <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">1996</t>
   </si>
   <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">2009</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
     <t xml:space="preserve">2016</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017</t>
   </si>
   <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">2020</t>
@@ -398,136 +437,175 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.4</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.4</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.533333333333333</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>0.533333333333333</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.533333333333333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>0.7</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8</v>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.8</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.8</v>
       </c>
     </row>
